--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3146.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3146.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.209313051816881</v>
+        <v>0.9806808829307556</v>
       </c>
       <c r="B1">
-        <v>2.670013896986526</v>
+        <v>1.31063187122345</v>
       </c>
       <c r="C1">
-        <v>3.585429597227961</v>
+        <v>2.118067502975464</v>
       </c>
       <c r="D1">
-        <v>4.144647389517366</v>
+        <v>4.560078144073486</v>
       </c>
       <c r="E1">
-        <v>1.560106462064268</v>
+        <v>2.11015248298645</v>
       </c>
     </row>
   </sheetData>
